--- a/results/tables/sens&spec.xlsx
+++ b/results/tables/sens&spec.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26519"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="18660" yWindow="2200" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>Diagnosis</t>
   </si>
@@ -217,6 +218,170 @@
         <rFont val="Cambria"/>
       </rPr>
       <t xml:space="preserve"> (78.5-89)</t>
+    </r>
+  </si>
+  <si>
+    <t>n=142</t>
+  </si>
+  <si>
+    <t>n=90</t>
+  </si>
+  <si>
+    <t>n=171</t>
+  </si>
+  <si>
+    <t>n=264</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>76.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve"> (67.7-84.9)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>15.8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve"> (10.5-21.6)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>37.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve"> (31.8-43.2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>96.5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve"> (93.7-99.3)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>88.2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve"> (81.7-94.6)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>54.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve"> (46.8-62)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>66.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve"> (60.6-72)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t>87.3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Cambria"/>
+      </rPr>
+      <t xml:space="preserve"> (81.7-92.3)</t>
     </r>
   </si>
 </sst>
@@ -227,7 +392,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -251,6 +416,28 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -415,11 +602,99 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -435,92 +710,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -852,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -863,136 +1058,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="5"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" ht="26">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="24" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="9">
         <v>90</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="11">
         <v>114</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="12" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="24" customHeight="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="15">
         <v>31</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="17">
         <v>113</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="24" customHeight="1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="9">
         <v>121</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="11">
         <v>227</v>
       </c>
-      <c r="F5" s="24" t="s">
+      <c r="F5" s="19" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
     </row>
     <row r="7" spans="1:6" ht="26">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16" thickBot="1">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="25">
         <v>167</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="27">
         <v>144</v>
       </c>
-      <c r="F8" s="33" t="s">
+      <c r="F8" s="28" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1003,6 +1198,174 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="A1:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="32"/>
+      <c r="E1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="1:6" ht="26">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9">
+        <v>71</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="11">
+        <v>82</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="15">
+        <v>27</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="17">
+        <v>93</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="9">
+        <v>98</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="11">
+        <v>175</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:6" ht="26">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" thickBot="1">
+      <c r="A8" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="25">
+        <v>137</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="27">
+        <v>124</v>
+      </c>
+      <c r="F8" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
